--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -706,13 +706,16 @@
     <t>Name: uganda-life-expectancy</t>
   </si>
   <si>
-    <t>Description: Ugandan Life Expectancy</t>
+    <t>Description: Life Expectancy</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Profiles of higher local governments 2014 - Uganda Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/2009_HLG_%20Abstract_printed/CIS+UPLOADS/Profiles%20of%20Higher%20Local%20Governments_June_2014.pdf</t>
   </si>
   <si>
     <t/>
@@ -727,7 +730,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1097,32 +1103,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1138,6 +1144,16 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -706,13 +706,13 @@
     <t>Name: uganda-life-expectancy</t>
   </si>
   <si>
-    <t>Description: Life Expectancy</t>
+    <t>Description: Life expectancy</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Profiles of higher local governments 2014 - Uganda Bureau of Statistics</t>
+    <t>Source: Profiles of higher (district and municipal) local governments 2014 â€“ Uganda Bureau of Statistics</t>
   </si>
   <si>
     <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/2009_HLG_%20Abstract_printed/CIS+UPLOADS/Profiles%20of%20Higher%20Local%20Governments_June_2014.pdf</t>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -1389,7 +1389,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>48.9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2927,7 +2927,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>48.9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -739,7 +739,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1184,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
@@ -858,9 +1196,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
@@ -870,9 +1210,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
@@ -882,9 +1224,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -894,9 +1238,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
@@ -906,9 +1252,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
@@ -918,9 +1266,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
@@ -930,9 +1280,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -942,9 +1294,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
@@ -954,9 +1308,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
@@ -966,9 +1322,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
@@ -978,9 +1336,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -990,9 +1350,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
@@ -1002,9 +1364,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
@@ -1014,9 +1378,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
@@ -1026,9 +1392,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1038,9 +1406,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
@@ -1050,9 +1420,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
@@ -1062,9 +1434,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
@@ -1074,9 +1448,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1084,9 +1460,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
@@ -1094,9 +1472,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
@@ -1106,9 +1486,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
@@ -1118,9 +1500,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1130,9 +1514,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
@@ -1142,9 +1528,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
@@ -1154,9 +1542,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
@@ -1166,9 +1556,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1178,9 +1570,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
@@ -1190,9 +1584,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
@@ -1202,9 +1598,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
@@ -1214,9 +1612,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1226,9 +1626,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
@@ -1238,9 +1640,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
@@ -1250,9 +1654,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
@@ -1262,9 +1668,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1274,9 +1682,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
@@ -1286,9 +1696,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
@@ -1296,9 +1708,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
@@ -1308,9 +1722,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1320,9 +1736,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
@@ -1332,9 +1750,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
@@ -1344,9 +1764,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
@@ -1356,9 +1778,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1368,9 +1792,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
@@ -1380,9 +1806,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
@@ -1392,9 +1820,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1404,9 +1834,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1416,9 +1848,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1428,9 +1862,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1440,9 +1876,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
@@ -1452,9 +1890,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1464,9 +1904,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1476,9 +1918,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
@@ -1488,9 +1932,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
@@ -1500,9 +1946,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1512,9 +1960,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
@@ -1524,9 +1974,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
@@ -1536,9 +1988,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
@@ -1548,9 +2002,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1560,9 +2016,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
@@ -1572,9 +2030,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
@@ -1584,9 +2044,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
@@ -1596,9 +2058,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1608,9 +2072,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1620,9 +2086,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
@@ -1632,9 +2100,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
@@ -1644,9 +2114,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1656,9 +2128,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
@@ -1668,9 +2142,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
@@ -1678,9 +2154,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
@@ -1690,9 +2168,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1702,9 +2182,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
@@ -1714,9 +2196,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
@@ -1726,9 +2210,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
@@ -1738,9 +2224,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1750,9 +2238,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
@@ -1762,9 +2252,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
@@ -1774,9 +2266,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
@@ -1786,9 +2280,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1798,9 +2294,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
@@ -1810,9 +2308,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
@@ -1822,9 +2322,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
@@ -1834,9 +2336,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1846,9 +2350,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -1858,9 +2364,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
@@ -1870,9 +2378,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
@@ -1882,9 +2392,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1894,9 +2406,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
@@ -1906,9 +2420,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
@@ -1918,9 +2434,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
@@ -1930,9 +2448,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1942,9 +2462,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
@@ -1954,9 +2476,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
@@ -1966,9 +2490,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -1978,9 +2504,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -1990,9 +2518,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
@@ -2000,9 +2530,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
@@ -2012,9 +2544,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
@@ -2024,9 +2558,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2036,9 +2572,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
@@ -2048,9 +2586,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
@@ -2060,9 +2600,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
@@ -2072,9 +2614,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2084,9 +2628,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
@@ -2096,9 +2642,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
@@ -2108,9 +2656,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
@@ -2120,9 +2670,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2132,9 +2684,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
@@ -2144,9 +2698,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
@@ -2156,9 +2712,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
@@ -2168,9 +2726,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2197,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2210,7 +2770,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>50.79</v>
@@ -2218,7 +2778,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>44.08</v>
@@ -2226,7 +2786,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>44.15</v>
@@ -2234,7 +2794,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>40.64</v>
@@ -2242,7 +2802,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>38.02</v>
@@ -2250,7 +2810,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>46.83</v>
@@ -2258,7 +2818,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>48.9</v>
@@ -2266,7 +2826,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>43.03</v>
@@ -2274,7 +2834,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>44.97</v>
@@ -2282,7 +2842,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>45.53</v>
@@ -2290,7 +2850,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>41.3</v>
@@ -2298,7 +2858,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>50.37</v>
@@ -2306,7 +2866,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>45.53</v>
@@ -2314,7 +2874,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>46.83</v>
@@ -2322,7 +2882,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>44.15</v>
@@ -2330,7 +2890,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>41</v>
@@ -2338,7 +2898,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>40.6</v>
@@ -2346,7 +2906,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>38.02</v>
@@ -2354,19 +2914,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>40.6</v>
@@ -2374,7 +2934,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>44.08</v>
@@ -2382,7 +2942,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>40.64</v>
@@ -2390,7 +2950,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>48.9</v>
@@ -2398,7 +2958,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>45.54</v>
@@ -2406,7 +2966,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>49.42</v>
@@ -2414,7 +2974,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>50.97</v>
@@ -2422,7 +2982,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>50.11</v>
@@ -2430,7 +2990,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>60.21</v>
@@ -2438,7 +2998,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>45.8</v>
@@ -2446,7 +3006,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>56</v>
@@ -2454,7 +3014,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>52.85</v>
@@ -2462,7 +3022,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>57.02</v>
@@ -2470,7 +3030,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>53.57</v>
@@ -2478,7 +3038,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>54.07</v>
@@ -2486,7 +3046,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>54.83</v>
@@ -2494,13 +3054,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>56.08</v>
@@ -2508,7 +3068,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>45.8</v>
@@ -2516,7 +3076,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>57.02</v>
@@ -2524,7 +3084,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>52.85</v>
@@ -2532,7 +3092,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>56.02</v>
@@ -2540,7 +3100,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>60.2</v>
@@ -2548,7 +3108,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>54.07</v>
@@ -2556,7 +3116,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>50.11</v>
@@ -2564,7 +3124,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>52.9</v>
@@ -2572,7 +3132,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>49.42</v>
@@ -2580,7 +3140,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>56.08</v>
@@ -2588,7 +3148,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>50.11</v>
@@ -2596,7 +3156,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>57.02</v>
@@ -2604,7 +3164,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>60.21</v>
@@ -2612,7 +3172,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>49.42</v>
@@ -2620,7 +3180,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>48.9</v>
@@ -2628,7 +3188,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>56.02</v>
@@ -2636,7 +3196,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>53.57</v>
@@ -2644,7 +3204,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>47.92</v>
@@ -2652,7 +3212,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>41.04</v>
@@ -2660,7 +3220,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>45.4</v>
@@ -2668,7 +3228,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>30.86</v>
@@ -2676,7 +3236,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>29.13</v>
@@ -2684,7 +3244,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>51.64</v>
@@ -2692,7 +3252,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>41.01</v>
@@ -2700,7 +3260,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>86.91</v>
@@ -2708,7 +3268,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>52.74</v>
@@ -2716,7 +3276,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>40.26</v>
@@ -2724,7 +3284,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>51.02</v>
@@ -2732,7 +3292,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>37</v>
@@ -2740,7 +3300,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>46.47</v>
@@ -2748,13 +3308,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>41.01</v>
@@ -2762,7 +3322,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>30.86</v>
@@ -2770,7 +3330,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>41.04</v>
@@ -2778,7 +3338,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>51.64</v>
@@ -2786,7 +3346,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>45.4</v>
@@ -2794,7 +3354,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>45.4</v>
@@ -2802,7 +3362,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>41.04</v>
@@ -2810,7 +3370,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>37</v>
@@ -2818,7 +3378,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>41.01</v>
@@ -2826,7 +3386,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>51</v>
@@ -2834,7 +3394,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>41.04</v>
@@ -2842,7 +3402,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>29.13</v>
@@ -2850,7 +3410,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>32.28</v>
@@ -2858,7 +3418,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>30.9</v>
@@ -2866,7 +3426,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>41.01</v>
@@ -2874,7 +3434,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>40.26</v>
@@ -2882,7 +3442,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>36.02</v>
@@ -2890,7 +3450,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>48.78</v>
@@ -2898,7 +3458,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>45.26</v>
@@ -2906,7 +3466,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>45.44</v>
@@ -2914,7 +3474,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>41.03</v>
@@ -2922,7 +3482,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>49.44</v>
@@ -2930,7 +3490,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>41.52</v>
@@ -2938,7 +3498,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>49.9</v>
@@ -2946,7 +3506,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>45</v>
@@ -2954,7 +3514,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>46.4</v>
@@ -2962,13 +3522,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>50.73</v>
@@ -2976,7 +3536,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>41.63</v>
@@ -2984,7 +3544,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>46.07</v>
@@ -2992,7 +3552,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>40.8</v>
@@ -3000,7 +3560,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>44.98</v>
@@ -3008,7 +3568,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>46.44</v>
@@ -3016,7 +3576,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>46.44</v>
@@ -3024,7 +3584,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>46.44</v>
@@ -3032,7 +3592,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>37.38</v>
@@ -3040,7 +3600,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>45</v>
@@ -3048,7 +3608,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>40.77</v>
@@ -3056,7 +3616,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>48.8</v>
@@ -3064,7 +3624,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>36.02</v>
@@ -3072,7 +3632,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>48.8</v>
@@ -3080,7 +3640,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>48.78</v>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -1190,9 +1190,7 @@
       <c r="C2" t="n">
         <v>2014</v>
       </c>
-      <c r="D2" t="n">
-        <v>44.4</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1205,7 +1203,7 @@
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="4">
@@ -1219,7 +1217,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>44.08</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1233,7 +1231,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>44.15</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="6">
@@ -1247,7 +1245,7 @@
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>40.64</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="7">
@@ -1261,7 +1259,7 @@
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>38.02</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1275,7 +1273,7 @@
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>46.83</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
@@ -1289,7 +1287,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>48.9</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1301,7 @@
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>43.03</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1315,7 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>44.97</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="12">
@@ -1331,7 +1329,7 @@
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>45.53</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="13">
@@ -1345,7 +1343,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="14">
@@ -1359,7 +1357,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>50.37</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="15">
@@ -1373,7 +1371,7 @@
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>45.53</v>
+        <v>37.38</v>
       </c>
     </row>
     <row r="16">
@@ -1387,7 +1385,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>46.83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1401,7 +1399,7 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>44.15</v>
+        <v>56.02</v>
       </c>
     </row>
     <row r="18">
@@ -1415,7 +1413,7 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="19">
@@ -1429,7 +1427,7 @@
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>40.6</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="20">
@@ -1443,7 +1441,7 @@
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>38.02</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="21">
@@ -1456,7 +1454,9 @@
       <c r="C21" t="n">
         <v>2014</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="n">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1468,7 +1468,9 @@
       <c r="C22" t="n">
         <v>2014</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="n">
+        <v>36.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1481,7 +1483,7 @@
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1497,7 @@
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>44.08</v>
+        <v>45.54</v>
       </c>
     </row>
     <row r="25">
@@ -1509,7 +1511,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>40.64</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="26">
@@ -1523,7 +1525,7 @@
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>48.9</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="27">
@@ -1536,9 +1538,7 @@
       <c r="C27" t="n">
         <v>2014</v>
       </c>
-      <c r="D27" t="n">
-        <v>45.54</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1551,7 +1551,7 @@
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>49.42</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="29">
@@ -1565,7 +1565,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>50.97</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="30">
@@ -1578,9 +1578,7 @@
       <c r="C30" t="n">
         <v>2014</v>
       </c>
-      <c r="D30" t="n">
-        <v>50.11</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1593,7 +1591,7 @@
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>60.21</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="32">
@@ -1607,7 +1605,7 @@
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>45.8</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="33">
@@ -1621,7 +1619,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>56</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="34">
@@ -1635,7 +1633,7 @@
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>52.85</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="35">
@@ -1649,7 +1647,7 @@
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>57.02</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="36">
@@ -1663,7 +1661,7 @@
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>53.57</v>
+        <v>50.97</v>
       </c>
     </row>
     <row r="37">
@@ -1677,7 +1675,7 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>54.07</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="38">
@@ -1691,7 +1689,7 @@
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>54.83</v>
+        <v>45.44</v>
       </c>
     </row>
     <row r="39">
@@ -1704,7 +1702,9 @@
       <c r="C39" t="n">
         <v>2014</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="n">
+        <v>41.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1717,7 +1717,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>56.08</v>
+        <v>54.83</v>
       </c>
     </row>
     <row r="41">
@@ -1731,7 +1731,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>45.8</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="42">
@@ -1745,7 +1745,7 @@
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>57.02</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="43">
@@ -1759,7 +1759,7 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>52.85</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="44">
@@ -1773,7 +1773,7 @@
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>56.02</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="45">
@@ -1787,7 +1787,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>60.2</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="46">
@@ -1801,7 +1801,7 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>54.07</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="47">
@@ -1815,7 +1815,7 @@
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>50.11</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="48">
@@ -1829,7 +1829,7 @@
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>52.9</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="49">
@@ -1843,7 +1843,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>49.42</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="50">
@@ -1857,7 +1857,7 @@
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>56.08</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="51">
@@ -1871,7 +1871,7 @@
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>50.11</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="52">
@@ -1885,7 +1885,7 @@
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>57.02</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="53">
@@ -1899,7 +1899,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>60.21</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="54">
@@ -1913,7 +1913,7 @@
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>49.42</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="55">
@@ -1927,7 +1927,7 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>48.9</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="56">
@@ -1941,7 +1941,7 @@
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>56.02</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
@@ -1955,7 +1955,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>53.57</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="58">
@@ -1969,7 +1969,7 @@
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>47.92</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="59">
@@ -1983,7 +1983,7 @@
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>41.04</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="60">
@@ -1997,7 +1997,7 @@
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>45.4</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="61">
@@ -2011,7 +2011,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>30.86</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="62">
@@ -2025,7 +2025,7 @@
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>29.13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -2039,7 +2039,7 @@
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>51.64</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="64">
@@ -2053,7 +2053,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>41.01</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="65">
@@ -2067,7 +2067,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>86.91</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="66">
@@ -2081,7 +2081,7 @@
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>52.74</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="67">
@@ -2095,7 +2095,7 @@
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>40.26</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="68">
@@ -2109,7 +2109,7 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>51.02</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="69">
@@ -2123,7 +2123,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>37</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="70">
@@ -2137,7 +2137,7 @@
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>46.47</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="71">
@@ -2150,7 +2150,9 @@
       <c r="C71" t="n">
         <v>2014</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="n">
+        <v>40.64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2163,7 +2165,7 @@
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>41.01</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="73">
@@ -2177,7 +2179,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>30.86</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="74">
@@ -2191,7 +2193,7 @@
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>41.04</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="75">
@@ -2205,7 +2207,7 @@
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>51.64</v>
+        <v>40.64</v>
       </c>
     </row>
     <row r="76">
@@ -2219,7 +2221,7 @@
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>45.4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
@@ -2232,9 +2234,7 @@
       <c r="C77" t="n">
         <v>2014</v>
       </c>
-      <c r="D77" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="D77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2247,7 +2247,7 @@
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>41.04</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="79">
@@ -2261,7 +2261,7 @@
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="80">
@@ -2275,7 +2275,7 @@
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>41.01</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="81">
@@ -2289,7 +2289,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="82">
@@ -2303,7 +2303,7 @@
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>41.04</v>
+        <v>86.91</v>
       </c>
     </row>
     <row r="83">
@@ -2317,7 +2317,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>29.13</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="84">
@@ -2331,7 +2331,7 @@
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>32.28</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="85">
@@ -2345,7 +2345,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>30.9</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="86">
@@ -2359,7 +2359,7 @@
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>41.01</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>40.26</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="88">
@@ -2387,7 +2387,7 @@
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>36.02</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="89">
@@ -2401,7 +2401,7 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>48.78</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="90">
@@ -2415,7 +2415,7 @@
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>45.26</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="91">
@@ -2429,7 +2429,7 @@
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>45.44</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="92">
@@ -2443,7 +2443,7 @@
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>41.03</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="93">
@@ -2457,7 +2457,7 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>49.44</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="94">
@@ -2471,7 +2471,7 @@
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>41.52</v>
+        <v>56.02</v>
       </c>
     </row>
     <row r="95">
@@ -2485,7 +2485,7 @@
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>49.9</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="96">
@@ -2498,9 +2498,7 @@
       <c r="C96" t="n">
         <v>2014</v>
       </c>
-      <c r="D96" t="n">
-        <v>45</v>
-      </c>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2513,7 +2511,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>46.4</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="98">
@@ -2526,7 +2524,9 @@
       <c r="C98" t="n">
         <v>2014</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>41.01</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>50.73</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="100">
@@ -2553,7 +2553,7 @@
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>41.63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -2567,7 +2567,7 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>46.07</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="102">
@@ -2581,7 +2581,7 @@
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>40.8</v>
+        <v>44.97</v>
       </c>
     </row>
     <row r="103">
@@ -2595,7 +2595,7 @@
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>44.98</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="104">
@@ -2609,7 +2609,7 @@
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>46.44</v>
+        <v>50.73</v>
       </c>
     </row>
     <row r="105">
@@ -2623,7 +2623,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>46.44</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="106">
@@ -2637,7 +2637,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>46.44</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="107">
@@ -2651,7 +2651,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>37.38</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="108">
@@ -2665,7 +2665,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>45</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="109">
@@ -2679,7 +2679,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>40.77</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="110">
@@ -2693,7 +2693,7 @@
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>48.8</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="111">
@@ -2707,7 +2707,7 @@
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>36.02</v>
+        <v>50.37</v>
       </c>
     </row>
     <row r="112">
@@ -2721,7 +2721,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>48.8</v>
+        <v>46.47</v>
       </c>
     </row>
     <row r="113">
@@ -2735,7 +2735,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>48.78</v>
+        <v>40.26</v>
       </c>
     </row>
   </sheetData>
@@ -2757,6 +2757,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2764,886 +2767,1222 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>44.4</v>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>50.79</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>47.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>44.08</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>44.15</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>40.64</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>38.02</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>46.83</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>48.9</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>43.03</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>44.97</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>45.53</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>41.3</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>52.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>50.37</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>45.53</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>46.83</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>44.15</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>41</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>40.6</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>38.02</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>56.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>40.6</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>44.08</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>45.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>40.64</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>54.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>48.9</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>45.54</v>
-      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>49.42</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>50.97</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>50.11</v>
-      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>60.21</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>45.8</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>56</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>52.85</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>57.02</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>53.57</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>54.07</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>51.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>54.83</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>45.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>56.08</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>54.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>45.8</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>57.02</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>52.85</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>56.02</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>60.2</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>54.07</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>50.11</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>52.9</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>60.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>49.42</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>56.08</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>50.11</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>57.02</v>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>41.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>60.21</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>44.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>49.42</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>48.9</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>56.02</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>53.57</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>49.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>47.92</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>41.04</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>45.4</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>30.86</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>51.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>29.13</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>51.64</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>60.21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>41.01</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>44.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>86.91</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>40.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>52.74</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>40.26</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>51.02</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>37</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>46.47</v>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>41.01</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>30.86</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>41.04</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>51.64</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>45.4</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>41.04</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>52.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>37</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>41.01</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>51</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>41.04</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>86.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>29.13</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>32.28</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>38.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>30.9</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>41.01</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>40.26</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>51.02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>36.02</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>44.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>48.78</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>43.03</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>45.26</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>45.44</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>41.03</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>32.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>49.44</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>40.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>41.52</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>49.9</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>36.02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>45</v>
-      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>46.4</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>41.01</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>50.73</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>41.63</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>46.07</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>40.8</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>44.97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>44.98</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>46.44</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50.73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>46.44</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>46.44</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>48.78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>37.38</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>56.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>45</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>40.77</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>45.53</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>48.8</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>54.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>36.02</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50.37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>48.8</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>46.47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>48.78</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>40.26</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,340 +28,676 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,1334 +1184,1558 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
-      <c r="D2" t="n">
-        <v>44.4</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>44.08</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>44.15</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>40.64</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>38.02</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>46.83</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>48.9</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>43.03</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>44.97</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>45.53</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>50.37</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>45.53</v>
+        <v>37.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>46.83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>44.15</v>
+        <v>56.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>40.6</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>38.02</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="n">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="n">
+        <v>36.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>44.08</v>
+        <v>45.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>40.64</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>48.9</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
-      <c r="D27" t="n">
-        <v>45.54</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>49.42</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>50.97</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
-      <c r="D30" t="n">
-        <v>50.11</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>60.21</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>45.8</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>56</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>52.85</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>57.02</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>53.57</v>
+        <v>50.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>54.07</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>54.83</v>
+        <v>45.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="n">
+        <v>41.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>56.08</v>
+        <v>54.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>45.8</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>57.02</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>52.85</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>56.02</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>60.2</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>54.07</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>50.11</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>52.9</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>49.42</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>56.08</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>50.11</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>57.02</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>60.21</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>49.42</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>48.9</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>56.02</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>53.57</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>47.92</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>41.04</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>45.4</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>30.86</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>29.13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>51.64</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>41.01</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>86.91</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>52.74</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>40.26</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>51.02</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>37</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>46.47</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="n">
+        <v>40.64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>41.01</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>30.86</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>41.04</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>51.64</v>
+        <v>40.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>45.4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
-      <c r="D77" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="D77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>41.04</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>41.01</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>41.04</v>
+        <v>86.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>29.13</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>32.28</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>30.9</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>41.01</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>40.26</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>36.02</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>48.78</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>45.26</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>45.44</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>41.03</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>49.44</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>41.52</v>
+        <v>56.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>49.9</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
-      <c r="D96" t="n">
-        <v>45</v>
-      </c>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>46.4</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>41.01</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>50.73</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>41.63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>46.07</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>40.8</v>
+        <v>44.97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>44.98</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>46.44</v>
+        <v>50.73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>46.44</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>46.44</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>37.38</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>45</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>40.77</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>48.8</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>36.02</v>
+        <v>50.37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>48.8</v>
+        <v>46.47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>48.78</v>
+        <v>40.26</v>
       </c>
     </row>
   </sheetData>
@@ -2197,893 +2757,1232 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>44.4</v>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50.79</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>47.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>44.08</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>44.15</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40.64</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>38.02</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>46.83</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>48.9</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>43.03</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>44.97</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>45.53</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>41.3</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>52.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>50.37</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>45.53</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>46.83</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
-        <v>44.15</v>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>40.6</v>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>38.02</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>56.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>40.6</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>44.08</v>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>45.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>40.64</v>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>54.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>48.9</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>45.54</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>49.42</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>50.97</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>50.11</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>60.21</v>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>45.8</v>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="n">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="n">
-        <v>52.85</v>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="n">
-        <v>57.02</v>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="n">
-        <v>53.57</v>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="n">
-        <v>54.07</v>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>51.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="n">
-        <v>54.83</v>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>45.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>56.08</v>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>54.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="n">
-        <v>45.8</v>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="n">
-        <v>57.02</v>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="n">
-        <v>52.85</v>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="n">
-        <v>56.02</v>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>60.2</v>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="n">
-        <v>54.07</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="n">
-        <v>50.11</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="n">
-        <v>52.9</v>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>60.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>49.42</v>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="n">
-        <v>56.08</v>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50.11</v>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="n">
-        <v>57.02</v>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>41.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="n">
-        <v>60.21</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>44.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="n">
-        <v>49.42</v>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>48.9</v>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="n">
-        <v>56.02</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="n">
-        <v>53.57</v>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>49.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>47.92</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="n">
-        <v>41.04</v>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="n">
-        <v>45.4</v>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="n">
-        <v>30.86</v>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>51.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="n">
-        <v>29.13</v>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>51.64</v>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>60.21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="n">
-        <v>41.01</v>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>44.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="n">
-        <v>86.91</v>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>40.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="n">
-        <v>52.74</v>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="n">
-        <v>40.26</v>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n">
-        <v>51.02</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n">
-        <v>37</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="n">
-        <v>46.47</v>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.64</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>41.01</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>30.86</v>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>41.04</v>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>51.64</v>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>45.4</v>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>45.4</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>41.04</v>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>52.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>37</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>41.01</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>51</v>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n">
-        <v>41.04</v>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>86.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n">
-        <v>29.13</v>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n">
-        <v>32.28</v>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>38.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n">
-        <v>30.9</v>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n">
-        <v>41.01</v>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="n">
-        <v>40.26</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>51.02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n">
-        <v>36.02</v>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>44.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
-        <v>48.78</v>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>43.03</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>45.26</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>45.44</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>49.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>41.03</v>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>32.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="n">
-        <v>49.44</v>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>40.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="n">
-        <v>41.52</v>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="n">
-        <v>49.9</v>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>36.02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="n">
-        <v>45</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="n">
-        <v>46.4</v>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>41.01</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>50.73</v>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>41.04</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="n">
-        <v>41.63</v>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="n">
-        <v>46.07</v>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>57.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="n">
-        <v>40.8</v>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>44.97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="n">
-        <v>44.98</v>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="n">
-        <v>46.44</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50.73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="n">
-        <v>46.44</v>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>46.44</v>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>48.78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>37.38</v>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>56.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>45</v>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>40.77</v>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>45.53</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>48.8</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>54.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>36.02</v>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50.37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>48.8</v>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>46.47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>48.78</v>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>40.26</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -646,6 +646,12 @@
     <t xml:space="preserve">Rukungiri</t>
   </si>
   <si>
+    <t xml:space="preserve">d111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
@@ -670,12 +676,6 @@
     <t xml:space="preserve">Soroti</t>
   </si>
   <si>
-    <t xml:space="preserve">d111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssembabule</t>
-  </si>
-  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
@@ -706,13 +706,16 @@
     <t xml:space="preserve">Name: uganda-life-expectancy</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Life expectancy.</t>
+    <t xml:space="preserve">Description: Average number of years that a person can expect to live in 'full health' by taking into account years lived in less than full health due to disease and/or injury. This can be derived for either males or females and is, in most populations, slightly higher for females. Life expectancy is normally determined at birth but can be derived at any other age based on the current death rates.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Profiles of higher (district and municipal) local governments 2014, Uganda Bureau of Statistics.</t>
+    <t xml:space="preserve">Source: 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -721,25 +724,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1092,64 +1089,58 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1376,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="17">
@@ -2623,7 +2614,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>53.57</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="106">
@@ -2637,7 +2628,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>48.78</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="107">
@@ -2651,7 +2642,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>56.08</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="108">
@@ -2665,7 +2656,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>53.57</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="109">
@@ -2679,7 +2670,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>45.53</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="110">
@@ -2757,9 +2748,6 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2767,19 +2755,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>47.92</v>
       </c>
     </row>
@@ -2787,10 +2769,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2798,10 +2777,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>41.01</v>
       </c>
     </row>
@@ -2809,10 +2785,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>41.01</v>
       </c>
     </row>
@@ -2820,10 +2793,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2831,10 +2801,7 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -2842,10 +2809,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>30.86</v>
       </c>
     </row>
@@ -2853,10 +2817,7 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>41.04</v>
       </c>
     </row>
@@ -2864,10 +2825,7 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -2875,10 +2833,7 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>57.02</v>
       </c>
     </row>
@@ -2886,10 +2841,7 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>52.85</v>
       </c>
     </row>
@@ -2897,10 +2849,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>48.9</v>
       </c>
     </row>
@@ -2908,10 +2857,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>37.38</v>
       </c>
     </row>
@@ -2919,21 +2865,15 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>41</v>
+      <c r="B16" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>56.02</v>
       </c>
     </row>
@@ -2941,10 +2881,7 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>40.6</v>
       </c>
     </row>
@@ -2952,10 +2889,7 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>60.2</v>
       </c>
     </row>
@@ -2963,10 +2897,7 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>56.08</v>
       </c>
     </row>
@@ -2974,10 +2905,7 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>44.98</v>
       </c>
     </row>
@@ -2985,10 +2913,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>36.02</v>
       </c>
     </row>
@@ -2996,10 +2921,7 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>48.78</v>
       </c>
     </row>
@@ -3007,10 +2929,7 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>45.54</v>
       </c>
     </row>
@@ -3018,10 +2937,7 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>54.07</v>
       </c>
     </row>
@@ -3029,10 +2945,7 @@
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>38.02</v>
       </c>
     </row>
@@ -3040,19 +2953,13 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27"/>
+      <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>50.11</v>
       </c>
     </row>
@@ -3060,10 +2967,7 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>41.04</v>
       </c>
     </row>
@@ -3071,19 +2975,13 @@
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30"/>
+      <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>30.86</v>
       </c>
     </row>
@@ -3091,10 +2989,7 @@
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>45.26</v>
       </c>
     </row>
@@ -3102,10 +2997,7 @@
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>46.44</v>
       </c>
     </row>
@@ -3113,10 +3005,7 @@
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>49.42</v>
       </c>
     </row>
@@ -3124,10 +3013,7 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>46.44</v>
       </c>
     </row>
@@ -3135,10 +3021,7 @@
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>50.97</v>
       </c>
     </row>
@@ -3146,10 +3029,7 @@
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="n">
         <v>51.64</v>
       </c>
     </row>
@@ -3157,10 +3037,7 @@
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="n">
         <v>45.44</v>
       </c>
     </row>
@@ -3168,10 +3045,7 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="n">
         <v>41.03</v>
       </c>
     </row>
@@ -3179,10 +3053,7 @@
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="n">
         <v>54.83</v>
       </c>
     </row>
@@ -3190,10 +3061,7 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="n">
         <v>44.4</v>
       </c>
     </row>
@@ -3201,10 +3069,7 @@
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="n">
         <v>50.11</v>
       </c>
     </row>
@@ -3212,10 +3077,7 @@
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="n">
         <v>40.6</v>
       </c>
     </row>
@@ -3223,10 +3085,7 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="n">
         <v>50.79</v>
       </c>
     </row>
@@ -3234,10 +3093,7 @@
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="n">
         <v>50.11</v>
       </c>
     </row>
@@ -3245,10 +3101,7 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="n">
         <v>41.63</v>
       </c>
     </row>
@@ -3256,10 +3109,7 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="n">
         <v>46.07</v>
       </c>
     </row>
@@ -3267,10 +3117,7 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="n">
         <v>60.21</v>
       </c>
     </row>
@@ -3278,10 +3125,7 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="n">
         <v>49.44</v>
       </c>
     </row>
@@ -3289,10 +3133,7 @@
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -3300,10 +3141,7 @@
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="n">
         <v>41.3</v>
       </c>
     </row>
@@ -3311,10 +3149,7 @@
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="n">
         <v>41.52</v>
       </c>
     </row>
@@ -3322,10 +3157,7 @@
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="n">
         <v>44.08</v>
       </c>
     </row>
@@ -3333,10 +3165,7 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="n">
         <v>57.02</v>
       </c>
     </row>
@@ -3344,10 +3173,7 @@
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="n">
         <v>46.44</v>
       </c>
     </row>
@@ -3355,10 +3181,7 @@
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3366,10 +3189,7 @@
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="n">
         <v>49.9</v>
       </c>
     </row>
@@ -3377,10 +3197,7 @@
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="n">
         <v>29.13</v>
       </c>
     </row>
@@ -3388,10 +3205,7 @@
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -3399,10 +3213,7 @@
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="n">
         <v>41.04</v>
       </c>
     </row>
@@ -3410,10 +3221,7 @@
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="n">
         <v>51.64</v>
       </c>
     </row>
@@ -3421,10 +3229,7 @@
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3432,10 +3237,7 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="n">
         <v>60.21</v>
       </c>
     </row>
@@ -3443,10 +3245,7 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="n">
         <v>44.08</v>
       </c>
     </row>
@@ -3454,10 +3253,7 @@
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="n">
         <v>40.77</v>
       </c>
     </row>
@@ -3465,10 +3261,7 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="n">
         <v>40.8</v>
       </c>
     </row>
@@ -3476,10 +3269,7 @@
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="n">
         <v>29.13</v>
       </c>
     </row>
@@ -3487,10 +3277,7 @@
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="n">
         <v>41.01</v>
       </c>
     </row>
@@ -3498,10 +3285,7 @@
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="n">
         <v>49.42</v>
       </c>
     </row>
@@ -3509,10 +3293,7 @@
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="n">
         <v>44.15</v>
       </c>
     </row>
@@ -3520,10 +3301,7 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="n">
         <v>40.64</v>
       </c>
     </row>
@@ -3531,10 +3309,7 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="n">
         <v>45.53</v>
       </c>
     </row>
@@ -3542,10 +3317,7 @@
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="n">
         <v>52.9</v>
       </c>
     </row>
@@ -3553,10 +3325,7 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -3564,10 +3333,7 @@
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="n">
         <v>40.64</v>
       </c>
     </row>
@@ -3575,10 +3341,7 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3586,19 +3349,13 @@
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77"/>
+      <c r="B77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="n">
         <v>52.85</v>
       </c>
     </row>
@@ -3606,10 +3363,7 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="n">
         <v>46.4</v>
       </c>
     </row>
@@ -3617,10 +3371,7 @@
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="n">
         <v>48.8</v>
       </c>
     </row>
@@ -3628,10 +3379,7 @@
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="n">
         <v>46.83</v>
       </c>
     </row>
@@ -3639,10 +3387,7 @@
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="n">
         <v>86.91</v>
       </c>
     </row>
@@ -3650,10 +3395,7 @@
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="n">
         <v>52.74</v>
       </c>
     </row>
@@ -3661,10 +3403,7 @@
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>38.02</v>
       </c>
     </row>
@@ -3672,10 +3411,7 @@
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="n">
         <v>46.83</v>
       </c>
     </row>
@@ -3683,10 +3419,7 @@
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="n">
         <v>48.9</v>
       </c>
     </row>
@@ -3694,10 +3427,7 @@
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="n">
         <v>51.02</v>
       </c>
     </row>
@@ -3705,10 +3435,7 @@
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" t="n">
         <v>44.15</v>
       </c>
     </row>
@@ -3716,10 +3443,7 @@
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="n">
         <v>43.03</v>
       </c>
     </row>
@@ -3727,10 +3451,7 @@
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="n">
         <v>48.9</v>
       </c>
     </row>
@@ -3738,10 +3459,7 @@
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="n">
         <v>49.42</v>
       </c>
     </row>
@@ -3749,10 +3467,7 @@
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" t="n">
         <v>32.28</v>
       </c>
     </row>
@@ -3760,10 +3475,7 @@
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" t="n">
         <v>40.26</v>
       </c>
     </row>
@@ -3771,10 +3483,7 @@
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" t="n">
         <v>56.02</v>
       </c>
     </row>
@@ -3782,10 +3491,7 @@
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" t="n">
         <v>36.02</v>
       </c>
     </row>
@@ -3793,19 +3499,13 @@
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96"/>
+      <c r="B96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>30.9</v>
       </c>
     </row>
@@ -3813,10 +3513,7 @@
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" t="n">
         <v>41.01</v>
       </c>
     </row>
@@ -3824,10 +3521,7 @@
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" t="n">
         <v>41.04</v>
       </c>
     </row>
@@ -3835,10 +3529,7 @@
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3846,10 +3537,7 @@
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" t="n">
         <v>57.02</v>
       </c>
     </row>
@@ -3857,10 +3545,7 @@
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" t="n">
         <v>44.97</v>
       </c>
     </row>
@@ -3868,10 +3553,7 @@
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" t="n">
         <v>48.8</v>
       </c>
     </row>
@@ -3879,10 +3561,7 @@
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" t="n">
         <v>50.73</v>
       </c>
     </row>
@@ -3890,65 +3569,47 @@
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" t="n">
-        <v>53.57</v>
+      <c r="B105" t="n">
+        <v>45.53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="s">
-        <v>213</v>
-      </c>
-      <c r="C106" t="n">
-        <v>48.78</v>
+      <c r="B106" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" t="n">
-        <v>56.08</v>
+      <c r="B107" t="n">
+        <v>48.78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
-      <c r="C108" t="n">
-        <v>53.57</v>
+      <c r="B108" t="n">
+        <v>56.08</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
-      <c r="C109" t="n">
-        <v>45.53</v>
+      <c r="B109" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" t="n">
         <v>54.07</v>
       </c>
     </row>
@@ -3956,10 +3617,7 @@
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" t="n">
         <v>50.37</v>
       </c>
     </row>
@@ -3967,10 +3625,7 @@
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" t="n">
         <v>46.47</v>
       </c>
     </row>
@@ -3978,10 +3633,7 @@
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" t="n">
         <v>40.26</v>
       </c>
     </row>

--- a/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
+++ b/user-data/uganda-life-expectancy/uganda-life-expectancy.xlsx
@@ -712,7 +712,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 28</t>
+    <t xml:space="preserve">Source: 29</t>
   </si>
   <si>
     <t xml:space="preserve"/>
